--- a/assets/files/UTS_Seq_Sample_Submission_ sheet.xlsx
+++ b/assets/files/UTS_Seq_Sample_Submission_ sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentutsedu-my.sharepoint.com/personal/deepa_nikappilsudarsanapanicker_uts_edu_au/Documents/Desktop/To Change on the Website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="8_{936ACF4E-537D-4C32-B1F0-6F46D5A935EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DCE4DF3-40A9-4F4A-86E4-F0317B0EC742}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="8_{936ACF4E-537D-4C32-B1F0-6F46D5A935EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E3960BB-38BA-4226-AE9B-9CDA6B08EA6A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="211" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="211" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer detail" sheetId="10" r:id="rId1"/>
@@ -88,13 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="325">
-  <si>
-    <t>UTS Sequencing Facility Ithree Institute</t>
-  </si>
-  <si>
-    <t>Telephone: (02) 9514 1601</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="319">
   <si>
     <t>Email: ngsfacility@uts.edu.au</t>
   </si>
@@ -262,15 +256,9 @@
     <t>In person:</t>
   </si>
   <si>
-    <t>Kay Anantanawat</t>
-  </si>
-  <si>
     <t>Sequencing facility, ithree Institute UTS</t>
   </si>
   <si>
-    <t>ithree Institute UTS</t>
-  </si>
-  <si>
     <t>UTS Faculty of Science Store</t>
   </si>
   <si>
@@ -304,30 +292,18 @@
     <t>Name:</t>
   </si>
   <si>
-    <t>Negar Mahmoudi</t>
-  </si>
-  <si>
     <t>Department/Institution:</t>
   </si>
   <si>
-    <t>John Curtin School of Medical Research</t>
-  </si>
-  <si>
     <t>Address (for non-UTS researcher only):</t>
   </si>
   <si>
-    <t xml:space="preserve"> 131 Garran Rd, Acton ACT 2601</t>
-  </si>
-  <si>
     <t>Contact number:</t>
   </si>
   <si>
     <t>Email:</t>
   </si>
   <si>
-    <t>Negar.mahmoudi@anu.edu.au</t>
-  </si>
-  <si>
     <t>If you work in UTS, please provide the account number.</t>
   </si>
   <si>
@@ -361,9 +337,6 @@
     <t>Note:</t>
   </si>
   <si>
-    <t>I would like to do next generation sequencing on a plasmid. We do not have any information on the sequence other than from the name of the plasmid: pAAV-gfaABC1D-NeuroD1-mcherry</t>
-  </si>
-  <si>
     <t>Samples information</t>
   </si>
   <si>
@@ -1178,6 +1151,15 @@
   </si>
   <si>
     <t>H:12</t>
+  </si>
+  <si>
+    <t>Deepa Panicker</t>
+  </si>
+  <si>
+    <t>UTS Sequencing Facility AIMI</t>
+  </si>
+  <si>
+    <t>AIMI,UTS</t>
   </si>
 </sst>
 </file>
@@ -1828,49 +1810,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>254000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1318204-8DD7-004C-B0C5-E19F108CF683}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="304800" y="457200"/>
-          <a:ext cx="2273300" cy="558800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>317500</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -1894,7 +1833,7 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -1913,6 +1852,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2292,8 +2235,8 @@
   </sheetPr>
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45:H50"/>
+    <sheetView showGridLines="0" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.54296875" defaultRowHeight="12.5"/>
@@ -2318,23 +2261,21 @@
   <sheetData>
     <row r="1" spans="1:17" s="41" customFormat="1" ht="16" customHeight="1">
       <c r="A1" s="47" t="s">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="35"/>
       <c r="D1" s="35"/>
       <c r="E1" s="38"/>
       <c r="F1" s="39"/>
-      <c r="G1" s="47" t="s">
-        <v>1</v>
-      </c>
+      <c r="G1" s="47"/>
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
       <c r="J1" s="39"/>
       <c r="K1" s="39"/>
       <c r="L1" s="39"/>
       <c r="M1" s="47" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N1" s="39"/>
       <c r="O1" s="39"/>
@@ -2343,7 +2284,7 @@
     <row r="2" spans="1:17" s="3" customFormat="1" ht="37" customHeight="1">
       <c r="E2" s="13"/>
       <c r="F2" s="59" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G2" s="59"/>
       <c r="H2" s="59"/>
@@ -2389,7 +2330,7 @@
     </row>
     <row r="6" spans="1:17" s="33" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A6" s="35" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" s="35"/>
       <c r="C6" s="36"/>
@@ -2408,63 +2349,63 @@
     </row>
     <row r="7" spans="1:17" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A7" s="52" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" s="44"/>
     </row>
     <row r="8" spans="1:17" s="34" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A8" s="34" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="34" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A9" s="26" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A10" s="25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" s="44"/>
     </row>
     <row r="11" spans="1:17" s="25" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A11" s="25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17" s="25" customFormat="1" ht="20.149999999999999" customHeight="1"/>
     <row r="13" spans="1:17" s="25" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A13" s="28" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17" s="25" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A14" s="25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:17" s="25" customFormat="1" ht="20.149999999999999" customHeight="1"/>
     <row r="16" spans="1:17" s="25" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A16" s="28" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="25" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A17" s="25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="26" customFormat="1" ht="20.149999999999999" customHeight="1"/>
     <row r="19" spans="1:16" s="26" customFormat="1" ht="20.149999999999999" customHeight="1"/>
     <row r="20" spans="1:16" s="34" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A20" s="34" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="26" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A21" s="25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
@@ -2484,19 +2425,19 @@
     </row>
     <row r="22" spans="1:16" s="25" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A22" s="25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="25" customFormat="1" ht="20.149999999999999" customHeight="1"/>
     <row r="24" spans="1:16" s="26" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A24" s="18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="27"/>
       <c r="D24" s="27"/>
       <c r="E24" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F24" s="27"/>
       <c r="G24" s="27"/>
@@ -2512,7 +2453,7 @@
     </row>
     <row r="25" spans="1:16" s="26" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A25" s="53" t="s">
-        <v>19</v>
+        <v>316</v>
       </c>
       <c r="B25" s="18"/>
       <c r="C25" s="27"/>
@@ -2532,55 +2473,55 @@
     </row>
     <row r="26" spans="1:16" s="26" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A26" s="28" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B26" s="28"/>
       <c r="E26" s="30" t="s">
-        <v>21</v>
+        <v>318</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="26" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A27" s="28" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B27" s="28"/>
       <c r="E27" s="30" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="26" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A28" s="28" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B28" s="28"/>
       <c r="C28" s="29"/>
       <c r="D28" s="29"/>
       <c r="E28" s="43" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I28" s="29"/>
       <c r="J28" s="29"/>
     </row>
     <row r="29" spans="1:16" s="26" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A29" s="28" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B29" s="28"/>
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
       <c r="E29" s="30" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="26" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A30" s="28" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B30" s="28"/>
       <c r="C30" s="28"/>
       <c r="D30" s="28"/>
       <c r="E30" s="28" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F30" s="25"/>
       <c r="G30" s="25"/>
@@ -2596,7 +2537,7 @@
     </row>
     <row r="31" spans="1:16" s="26" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A31" s="28" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B31" s="28"/>
       <c r="C31" s="25"/>
@@ -2634,7 +2575,7 @@
     </row>
     <row r="33" spans="1:15" s="24" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A33" s="42" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B33" s="42"/>
       <c r="C33" s="42"/>
@@ -2653,63 +2594,52 @@
     </row>
     <row r="34" spans="1:15" s="6" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A34" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>33</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B34" s="14"/>
     </row>
     <row r="35" spans="1:15" s="6" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A35" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>35</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B35" s="14"/>
     </row>
     <row r="36" spans="1:15" s="6" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A36" s="29" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B36" s="14"/>
-      <c r="C36" s="6" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="37" spans="1:15" s="6" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A37" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="14">
-        <v>402411012</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B37" s="14"/>
     </row>
     <row r="38" spans="1:15" s="6" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A38" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="55" t="s">
-        <v>40</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B38" s="55"/>
       <c r="C38" s="55"/>
     </row>
     <row r="39" spans="1:15" s="6" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A39" s="29" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B39" s="14"/>
       <c r="E39" s="29" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F39" s="54"/>
       <c r="G39" s="29" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H39" s="54"/>
     </row>
     <row r="40" spans="1:15" s="24" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A40" s="42" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B40" s="42"/>
       <c r="C40" s="42"/>
@@ -2728,32 +2658,28 @@
     </row>
     <row r="41" spans="1:15" s="6" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A41" s="29" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B41" s="14"/>
       <c r="C41" s="6" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:15" s="6" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A42" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42" s="60" t="s">
-        <v>48</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B42" s="60"/>
       <c r="C42" s="60"/>
       <c r="D42" s="29" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="6" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A43" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="B43" s="14">
-        <v>1</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B43" s="14"/>
     </row>
     <row r="44" spans="1:15" s="6" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A44" s="29"/>
@@ -2761,11 +2687,9 @@
     </row>
     <row r="45" spans="1:15" ht="32.5" customHeight="1">
       <c r="A45" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45" s="61" t="s">
-        <v>52</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B45" s="61"/>
       <c r="C45" s="61"/>
       <c r="D45" s="61"/>
       <c r="E45" s="61"/>
@@ -2834,18 +2758,15 @@
       <formula1>Service_type</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="B38" r:id="rId1" xr:uid="{324A1EA1-C726-4665-992F-B9E1E99B2D24}"/>
-  </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup scale="35" fitToHeight="4" orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup scale="35" fitToHeight="4" orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader xml:space="preserve">&amp;L&amp;"System Font,Regular"&amp;K000000&amp;F
 Last update: &amp;D
 </oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2861,7 +2782,7 @@
   </sheetPr>
   <dimension ref="A1:R121"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
@@ -2888,7 +2809,7 @@
   <sheetData>
     <row r="1" spans="1:15" s="24" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A1" s="42" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B1" s="42"/>
       <c r="C1" s="42"/>
@@ -2907,54 +2828,54 @@
     </row>
     <row r="2" spans="1:15" s="45" customFormat="1" ht="54" customHeight="1">
       <c r="A2" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="K2" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="L2" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="M2" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="N2" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="O2" s="46" t="s">
         <v>59</v>
-      </c>
-      <c r="G2" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="I2" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="J2" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="K2" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="L2" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="M2" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="N2" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="O2" s="46" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="7" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A3" s="22" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B3" s="48"/>
       <c r="C3" s="22"/>
@@ -2973,7 +2894,7 @@
     </row>
     <row r="4" spans="1:15" s="7" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A4" s="22" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B4" s="48"/>
       <c r="C4" s="22"/>
@@ -2992,7 +2913,7 @@
     </row>
     <row r="5" spans="1:15" s="7" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A5" s="22" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B5" s="48"/>
       <c r="C5" s="22"/>
@@ -3011,7 +2932,7 @@
     </row>
     <row r="6" spans="1:15" s="7" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A6" s="22" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B6" s="48"/>
       <c r="C6" s="22"/>
@@ -3030,7 +2951,7 @@
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A7" s="22" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B7" s="48"/>
       <c r="C7" s="22"/>
@@ -3049,7 +2970,7 @@
     </row>
     <row r="8" spans="1:15" s="7" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A8" s="22" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B8" s="48"/>
       <c r="C8" s="22"/>
@@ -3068,7 +2989,7 @@
     </row>
     <row r="9" spans="1:15" s="7" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A9" s="22" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B9" s="48"/>
       <c r="C9" s="22"/>
@@ -3087,7 +3008,7 @@
     </row>
     <row r="10" spans="1:15" s="7" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A10" s="22" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B10" s="48"/>
       <c r="C10" s="22"/>
@@ -3106,7 +3027,7 @@
     </row>
     <row r="11" spans="1:15" s="7" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A11" s="22" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B11" s="48"/>
       <c r="C11" s="22"/>
@@ -3125,7 +3046,7 @@
     </row>
     <row r="12" spans="1:15" s="7" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A12" s="22" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B12" s="48"/>
       <c r="C12" s="22"/>
@@ -3144,7 +3065,7 @@
     </row>
     <row r="13" spans="1:15" s="7" customFormat="1" ht="20.149999999999999" customHeight="1">
       <c r="A13" s="22" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B13" s="48"/>
       <c r="C13" s="22"/>
@@ -3163,7 +3084,7 @@
     </row>
     <row r="14" spans="1:15" s="6" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A14" s="22" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B14" s="48"/>
       <c r="C14" s="22"/>
@@ -3182,7 +3103,7 @@
     </row>
     <row r="15" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A15" s="22" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B15" s="48"/>
       <c r="C15" s="22"/>
@@ -3201,7 +3122,7 @@
     </row>
     <row r="16" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A16" s="22" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B16" s="48"/>
       <c r="C16" s="22"/>
@@ -3220,7 +3141,7 @@
     </row>
     <row r="17" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A17" s="22" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B17" s="48"/>
       <c r="C17" s="22"/>
@@ -3239,7 +3160,7 @@
     </row>
     <row r="18" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A18" s="22" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B18" s="48"/>
       <c r="C18" s="22"/>
@@ -3258,7 +3179,7 @@
     </row>
     <row r="19" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A19" s="22" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B19" s="48"/>
       <c r="C19" s="22"/>
@@ -3277,7 +3198,7 @@
     </row>
     <row r="20" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A20" s="22" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B20" s="48"/>
       <c r="C20" s="22"/>
@@ -3296,7 +3217,7 @@
     </row>
     <row r="21" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A21" s="22" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B21" s="48"/>
       <c r="C21" s="22"/>
@@ -3315,7 +3236,7 @@
     </row>
     <row r="22" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A22" s="22" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B22" s="48"/>
       <c r="C22" s="22"/>
@@ -3334,7 +3255,7 @@
     </row>
     <row r="23" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A23" s="22" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B23" s="48"/>
       <c r="C23" s="22"/>
@@ -3353,7 +3274,7 @@
     </row>
     <row r="24" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A24" s="22" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B24" s="48"/>
       <c r="C24" s="22"/>
@@ -3372,7 +3293,7 @@
     </row>
     <row r="25" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A25" s="22" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B25" s="48"/>
       <c r="C25" s="22"/>
@@ -3391,7 +3312,7 @@
     </row>
     <row r="26" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A26" s="22" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B26" s="48"/>
       <c r="C26" s="22"/>
@@ -3410,7 +3331,7 @@
     </row>
     <row r="27" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A27" s="22" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B27" s="48"/>
       <c r="C27" s="22"/>
@@ -3429,7 +3350,7 @@
     </row>
     <row r="28" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A28" s="22" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B28" s="48"/>
       <c r="C28" s="22"/>
@@ -3448,7 +3369,7 @@
     </row>
     <row r="29" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A29" s="22" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B29" s="48"/>
       <c r="C29" s="22"/>
@@ -3467,7 +3388,7 @@
     </row>
     <row r="30" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A30" s="22" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B30" s="48"/>
       <c r="C30" s="22"/>
@@ -3486,7 +3407,7 @@
     </row>
     <row r="31" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A31" s="22" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B31" s="48"/>
       <c r="C31" s="22"/>
@@ -3505,7 +3426,7 @@
     </row>
     <row r="32" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A32" s="22" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B32" s="48"/>
       <c r="C32" s="22"/>
@@ -3524,7 +3445,7 @@
     </row>
     <row r="33" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A33" s="22" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B33" s="48"/>
       <c r="C33" s="22"/>
@@ -3543,7 +3464,7 @@
     </row>
     <row r="34" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A34" s="22" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B34" s="48"/>
       <c r="C34" s="22"/>
@@ -3562,7 +3483,7 @@
     </row>
     <row r="35" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A35" s="22" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B35" s="48"/>
       <c r="C35" s="22"/>
@@ -3581,7 +3502,7 @@
     </row>
     <row r="36" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A36" s="22" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B36" s="48"/>
       <c r="C36" s="22"/>
@@ -3600,7 +3521,7 @@
     </row>
     <row r="37" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A37" s="22" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B37" s="48"/>
       <c r="C37" s="22"/>
@@ -3619,7 +3540,7 @@
     </row>
     <row r="38" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A38" s="22" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B38" s="48"/>
       <c r="C38" s="22"/>
@@ -3638,7 +3559,7 @@
     </row>
     <row r="39" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A39" s="22" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B39" s="48"/>
       <c r="C39" s="22"/>
@@ -3657,7 +3578,7 @@
     </row>
     <row r="40" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A40" s="22" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B40" s="48"/>
       <c r="C40" s="22"/>
@@ -3676,7 +3597,7 @@
     </row>
     <row r="41" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A41" s="22" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B41" s="48"/>
       <c r="C41" s="22"/>
@@ -3695,7 +3616,7 @@
     </row>
     <row r="42" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A42" s="22" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B42" s="48"/>
       <c r="C42" s="22"/>
@@ -3714,7 +3635,7 @@
     </row>
     <row r="43" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A43" s="22" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B43" s="48"/>
       <c r="C43" s="22"/>
@@ -3733,7 +3654,7 @@
     </row>
     <row r="44" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A44" s="22" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B44" s="48"/>
       <c r="C44" s="22"/>
@@ -3752,7 +3673,7 @@
     </row>
     <row r="45" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A45" s="22" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B45" s="48"/>
       <c r="C45" s="22"/>
@@ -3771,7 +3692,7 @@
     </row>
     <row r="46" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A46" s="22" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B46" s="48"/>
       <c r="C46" s="22"/>
@@ -3790,7 +3711,7 @@
     </row>
     <row r="47" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A47" s="22" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B47" s="48"/>
       <c r="C47" s="22"/>
@@ -3809,7 +3730,7 @@
     </row>
     <row r="48" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A48" s="22" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B48" s="48"/>
       <c r="C48" s="22"/>
@@ -3828,7 +3749,7 @@
     </row>
     <row r="49" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A49" s="22" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B49" s="48"/>
       <c r="C49" s="22"/>
@@ -3847,7 +3768,7 @@
     </row>
     <row r="50" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A50" s="22" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B50" s="48"/>
       <c r="C50" s="22"/>
@@ -3866,7 +3787,7 @@
     </row>
     <row r="51" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A51" s="22" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B51" s="48"/>
       <c r="C51" s="22"/>
@@ -3885,7 +3806,7 @@
     </row>
     <row r="52" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A52" s="22" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B52" s="48"/>
       <c r="C52" s="22"/>
@@ -3904,7 +3825,7 @@
     </row>
     <row r="53" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A53" s="22" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B53" s="48"/>
       <c r="C53" s="22"/>
@@ -3923,7 +3844,7 @@
     </row>
     <row r="54" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A54" s="22" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B54" s="48"/>
       <c r="C54" s="22"/>
@@ -3942,7 +3863,7 @@
     </row>
     <row r="55" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A55" s="22" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B55" s="48"/>
       <c r="C55" s="22"/>
@@ -3961,7 +3882,7 @@
     </row>
     <row r="56" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A56" s="22" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B56" s="48"/>
       <c r="C56" s="22"/>
@@ -3980,7 +3901,7 @@
     </row>
     <row r="57" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A57" s="22" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B57" s="48"/>
       <c r="C57" s="22"/>
@@ -3999,7 +3920,7 @@
     </row>
     <row r="58" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A58" s="22" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B58" s="48"/>
       <c r="C58" s="22"/>
@@ -4018,7 +3939,7 @@
     </row>
     <row r="59" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A59" s="22" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B59" s="48"/>
       <c r="C59" s="22"/>
@@ -4037,7 +3958,7 @@
     </row>
     <row r="60" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A60" s="22" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B60" s="48"/>
       <c r="C60" s="22"/>
@@ -4056,7 +3977,7 @@
     </row>
     <row r="61" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A61" s="22" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B61" s="48"/>
       <c r="C61" s="22"/>
@@ -4075,7 +3996,7 @@
     </row>
     <row r="62" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A62" s="22" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B62" s="48"/>
       <c r="C62" s="22"/>
@@ -4094,7 +4015,7 @@
     </row>
     <row r="63" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A63" s="22" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B63" s="48"/>
       <c r="C63" s="22"/>
@@ -4113,7 +4034,7 @@
     </row>
     <row r="64" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A64" s="22" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B64" s="48"/>
       <c r="C64" s="22"/>
@@ -4132,7 +4053,7 @@
     </row>
     <row r="65" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A65" s="22" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B65" s="48"/>
       <c r="C65" s="22"/>
@@ -4151,7 +4072,7 @@
     </row>
     <row r="66" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A66" s="22" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B66" s="48"/>
       <c r="C66" s="22"/>
@@ -4170,7 +4091,7 @@
     </row>
     <row r="67" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A67" s="22" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B67" s="48"/>
       <c r="C67" s="22"/>
@@ -4189,7 +4110,7 @@
     </row>
     <row r="68" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A68" s="22" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B68" s="48"/>
       <c r="C68" s="22"/>
@@ -4208,7 +4129,7 @@
     </row>
     <row r="69" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A69" s="22" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B69" s="48"/>
       <c r="C69" s="22"/>
@@ -4227,7 +4148,7 @@
     </row>
     <row r="70" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A70" s="22" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B70" s="48"/>
       <c r="C70" s="22"/>
@@ -4246,7 +4167,7 @@
     </row>
     <row r="71" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A71" s="22" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B71" s="48"/>
       <c r="C71" s="22"/>
@@ -4265,7 +4186,7 @@
     </row>
     <row r="72" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A72" s="22" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B72" s="48"/>
       <c r="C72" s="22"/>
@@ -4284,7 +4205,7 @@
     </row>
     <row r="73" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A73" s="22" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B73" s="48"/>
       <c r="C73" s="22"/>
@@ -4303,7 +4224,7 @@
     </row>
     <row r="74" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A74" s="22" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B74" s="48"/>
       <c r="C74" s="22"/>
@@ -4322,7 +4243,7 @@
     </row>
     <row r="75" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A75" s="22" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B75" s="48"/>
       <c r="C75" s="22"/>
@@ -4341,7 +4262,7 @@
     </row>
     <row r="76" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A76" s="22" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B76" s="48"/>
       <c r="C76" s="22"/>
@@ -4360,7 +4281,7 @@
     </row>
     <row r="77" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A77" s="22" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B77" s="48"/>
       <c r="C77" s="22"/>
@@ -4379,7 +4300,7 @@
     </row>
     <row r="78" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A78" s="22" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B78" s="48"/>
       <c r="C78" s="22"/>
@@ -4398,7 +4319,7 @@
     </row>
     <row r="79" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A79" s="22" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B79" s="48"/>
       <c r="C79" s="22"/>
@@ -4417,7 +4338,7 @@
     </row>
     <row r="80" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A80" s="22" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B80" s="48"/>
       <c r="C80" s="22"/>
@@ -4436,7 +4357,7 @@
     </row>
     <row r="81" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A81" s="22" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B81" s="48"/>
       <c r="C81" s="22"/>
@@ -4455,7 +4376,7 @@
     </row>
     <row r="82" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A82" s="22" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B82" s="48"/>
       <c r="C82" s="22"/>
@@ -4474,7 +4395,7 @@
     </row>
     <row r="83" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A83" s="22" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B83" s="48"/>
       <c r="C83" s="22"/>
@@ -4493,7 +4414,7 @@
     </row>
     <row r="84" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A84" s="22" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B84" s="48"/>
       <c r="C84" s="22"/>
@@ -4512,7 +4433,7 @@
     </row>
     <row r="85" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A85" s="22" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B85" s="48"/>
       <c r="C85" s="22"/>
@@ -4531,7 +4452,7 @@
     </row>
     <row r="86" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A86" s="22" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B86" s="48"/>
       <c r="C86" s="22"/>
@@ -4550,7 +4471,7 @@
     </row>
     <row r="87" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A87" s="22" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="B87" s="48"/>
       <c r="C87" s="22"/>
@@ -4569,7 +4490,7 @@
     </row>
     <row r="88" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A88" s="22" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B88" s="48"/>
       <c r="C88" s="22"/>
@@ -4588,7 +4509,7 @@
     </row>
     <row r="89" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A89" s="22" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B89" s="48"/>
       <c r="C89" s="22"/>
@@ -4607,7 +4528,7 @@
     </row>
     <row r="90" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A90" s="22" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B90" s="48"/>
       <c r="C90" s="22"/>
@@ -4626,7 +4547,7 @@
     </row>
     <row r="91" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A91" s="22" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="B91" s="48"/>
       <c r="C91" s="22"/>
@@ -4645,7 +4566,7 @@
     </row>
     <row r="92" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A92" s="22" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B92" s="48"/>
       <c r="C92" s="22"/>
@@ -4664,7 +4585,7 @@
     </row>
     <row r="93" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A93" s="22" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B93" s="48"/>
       <c r="C93" s="22"/>
@@ -4683,7 +4604,7 @@
     </row>
     <row r="94" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A94" s="22" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B94" s="48"/>
       <c r="C94" s="22"/>
@@ -4702,7 +4623,7 @@
     </row>
     <row r="95" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A95" s="22" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B95" s="48"/>
       <c r="C95" s="22"/>
@@ -4721,7 +4642,7 @@
     </row>
     <row r="96" spans="1:15" s="23" customFormat="1" ht="17.149999999999999" customHeight="1">
       <c r="A96" s="22" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B96" s="48"/>
       <c r="C96" s="22"/>
@@ -4740,7 +4661,7 @@
     </row>
     <row r="97" spans="1:18" s="8" customFormat="1" ht="16" customHeight="1">
       <c r="A97" s="22" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B97" s="48"/>
       <c r="C97" s="22"/>
@@ -4755,7 +4676,7 @@
     </row>
     <row r="98" spans="1:18" s="8" customFormat="1" ht="16" customHeight="1">
       <c r="A98" s="22" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B98" s="48"/>
       <c r="C98" s="22"/>
@@ -4770,7 +4691,7 @@
     </row>
     <row r="99" spans="1:18" s="8" customFormat="1" ht="16" customHeight="1">
       <c r="A99" s="22" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B99" s="48"/>
       <c r="C99" s="22"/>
@@ -4785,7 +4706,7 @@
     </row>
     <row r="100" spans="1:18" s="8" customFormat="1" ht="16" customHeight="1">
       <c r="A100" s="22" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B100" s="48"/>
       <c r="C100" s="22"/>
@@ -4800,7 +4721,7 @@
     </row>
     <row r="101" spans="1:18" s="8" customFormat="1" ht="16" customHeight="1">
       <c r="A101" s="22" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B101" s="48"/>
       <c r="C101" s="22"/>
@@ -4815,7 +4736,7 @@
     </row>
     <row r="102" spans="1:18" s="8" customFormat="1" ht="13" customHeight="1">
       <c r="A102" s="22" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B102" s="48"/>
       <c r="C102" s="22"/>
@@ -4830,7 +4751,7 @@
     </row>
     <row r="103" spans="1:18" s="8" customFormat="1" ht="13" customHeight="1">
       <c r="A103" s="22" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B103" s="48"/>
       <c r="C103" s="22"/>
@@ -4845,7 +4766,7 @@
     </row>
     <row r="104" spans="1:18" s="8" customFormat="1" ht="13" customHeight="1">
       <c r="A104" s="22" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B104" s="48"/>
       <c r="C104" s="22"/>
@@ -4860,7 +4781,7 @@
     </row>
     <row r="105" spans="1:18" s="8" customFormat="1" ht="13" customHeight="1">
       <c r="A105" s="22" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B105" s="48"/>
       <c r="C105" s="22"/>
@@ -4872,7 +4793,7 @@
     </row>
     <row r="106" spans="1:18" ht="13" customHeight="1">
       <c r="A106" s="22" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B106" s="48"/>
       <c r="C106" s="22"/>
@@ -4883,7 +4804,7 @@
     </row>
     <row r="107" spans="1:18" ht="13" customHeight="1">
       <c r="A107" s="22" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B107" s="48"/>
       <c r="C107" s="22"/>
@@ -4892,7 +4813,7 @@
     </row>
     <row r="108" spans="1:18" ht="13" customHeight="1">
       <c r="A108" s="22" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B108" s="48"/>
       <c r="C108" s="22"/>
@@ -4903,7 +4824,7 @@
     </row>
     <row r="109" spans="1:18" s="8" customFormat="1" ht="16" customHeight="1">
       <c r="A109" s="22" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B109" s="48"/>
       <c r="C109" s="22"/>
@@ -4918,7 +4839,7 @@
     </row>
     <row r="110" spans="1:18" s="8" customFormat="1" ht="16" customHeight="1">
       <c r="A110" s="22" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B110" s="48"/>
       <c r="C110" s="22"/>
@@ -4933,7 +4854,7 @@
     </row>
     <row r="111" spans="1:18" s="8" customFormat="1" ht="16" customHeight="1">
       <c r="A111" s="22" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B111" s="48"/>
       <c r="C111" s="22"/>
@@ -4945,7 +4866,7 @@
     </row>
     <row r="112" spans="1:18" ht="13">
       <c r="A112" s="22" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B112" s="48"/>
       <c r="C112" s="22"/>
@@ -4956,7 +4877,7 @@
     </row>
     <row r="113" spans="1:16">
       <c r="A113" s="22" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B113" s="48"/>
       <c r="C113" s="22"/>
@@ -4965,7 +4886,7 @@
     </row>
     <row r="114" spans="1:16">
       <c r="A114" s="22" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B114" s="48"/>
       <c r="C114" s="22"/>
@@ -4976,7 +4897,7 @@
     </row>
     <row r="115" spans="1:16">
       <c r="A115" s="22" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B115" s="48"/>
       <c r="C115" s="22"/>
@@ -4987,7 +4908,7 @@
     </row>
     <row r="116" spans="1:16">
       <c r="A116" s="22" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B116" s="48"/>
       <c r="C116" s="22"/>
@@ -4996,7 +4917,7 @@
     </row>
     <row r="117" spans="1:16">
       <c r="A117" s="22" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B117" s="48"/>
       <c r="C117" s="22"/>
@@ -5005,7 +4926,7 @@
     </row>
     <row r="118" spans="1:16">
       <c r="A118" s="22" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B118" s="48"/>
       <c r="C118" s="22"/>
@@ -5014,7 +4935,7 @@
     </row>
     <row r="119" spans="1:16">
       <c r="A119" s="22" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B119" s="48"/>
       <c r="C119" s="22"/>
@@ -5023,7 +4944,7 @@
     </row>
     <row r="120" spans="1:16">
       <c r="A120" s="22" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B120" s="48"/>
       <c r="C120" s="22"/>
@@ -5032,7 +4953,7 @@
     </row>
     <row r="121" spans="1:16">
       <c r="A121" s="22" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B121" s="48"/>
       <c r="C121" s="22"/>
@@ -5087,621 +5008,621 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B1" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C1" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E1" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="F1" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="G1" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C2" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="E2" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="F2" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="G2" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="C3" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="E3" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="G3" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="C4" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="E4" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="G4" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="C5" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="E5" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="G5" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="C6" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="E6" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="G6" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="E7" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="G7" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="E8" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="G8" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="E9" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="G9" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="E10" s="32" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="G10" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="G11" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="G12" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="12.75" customHeight="1">
       <c r="A13" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="G13" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="12.75" customHeight="1">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="G14" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="G15" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="G16" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="G17" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G18" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="G19" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="G20" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="G21" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="G22" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="G23" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="G24" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="G25" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G26" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="G27" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="G28" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="G29" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="G30" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="G31" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="G32" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="G33" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="G34" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="G35" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G36" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="G37" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="G38" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="G39" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="G40" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="G41" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="G42" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="G43" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="G44" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="G45" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="G46" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="G47" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="G48" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="15"/>
       <c r="G49" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="G50" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="G51" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="G52" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="G53" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="G54" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="G55" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="G56" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="G57" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="G58" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="G59" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="G60" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="G61" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="G62" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="G63" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="G64" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="65" spans="7:7">
       <c r="G65" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
     <row r="66" spans="7:7">
       <c r="G66" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="67" spans="7:7">
       <c r="G67" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="68" spans="7:7">
       <c r="G68" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
     </row>
     <row r="69" spans="7:7">
       <c r="G69" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
     </row>
     <row r="70" spans="7:7">
       <c r="G70" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
     </row>
     <row r="71" spans="7:7">
       <c r="G71" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
     </row>
     <row r="72" spans="7:7">
       <c r="G72" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
     </row>
     <row r="73" spans="7:7">
       <c r="G73" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="74" spans="7:7">
       <c r="G74" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="75" spans="7:7">
       <c r="G75" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="76" spans="7:7">
       <c r="G76" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="77" spans="7:7">
       <c r="G77" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
     </row>
     <row r="78" spans="7:7">
       <c r="G78" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
     </row>
     <row r="79" spans="7:7">
       <c r="G79" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="80" spans="7:7">
       <c r="G80" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
     </row>
     <row r="81" spans="7:7">
       <c r="G81" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
     </row>
     <row r="82" spans="7:7">
       <c r="G82" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
     </row>
     <row r="83" spans="7:7">
       <c r="G83" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="84" spans="7:7">
       <c r="G84" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
     </row>
     <row r="85" spans="7:7">
       <c r="G85" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="86" spans="7:7">
       <c r="G86" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
     </row>
     <row r="87" spans="7:7">
       <c r="G87" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="88" spans="7:7">
       <c r="G88" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="89" spans="7:7">
       <c r="G89" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="90" spans="7:7">
       <c r="G90" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
     </row>
     <row r="91" spans="7:7">
       <c r="G91" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="92" spans="7:7">
       <c r="G92" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
     </row>
     <row r="93" spans="7:7">
       <c r="G93" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
     <row r="94" spans="7:7">
       <c r="G94" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="95" spans="7:7">
       <c r="G95" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
     </row>
     <row r="96" spans="7:7">
       <c r="G96" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
